--- a/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B916AE5-F248-48A3-ACA5-1E3DD44E8F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB0090-62AF-4148-8860-728F7A944C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="211">
   <si>
     <t>VEG_COMP_LYR_R1_POLY</t>
   </si>
@@ -660,6 +660,15 @@
   </si>
   <si>
     <t>OWNERSHIP_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BRANCH_BIOMASS_PER_HA</t>
+  </si>
+  <si>
+    <t>FOLIAGE_BIOMASS_PER_HA</t>
+  </si>
+  <si>
+    <t>BARK_BIOMASS_PER_HA</t>
   </si>
 </sst>
 </file>
@@ -765,9 +774,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -805,7 +814,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -911,7 +920,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1053,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1061,27 +1070,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1108,7 +1117,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1157,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1177,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1197,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1208,7 +1217,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1255,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1274,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1358,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1376,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1394,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1412,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1432,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1452,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1472,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1492,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1512,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1532,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1550,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1568,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1586,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1604,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1622,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1640,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1658,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1694,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1712,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1730,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1750,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -1759,111 +1768,109 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F39" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
@@ -1875,7 +1882,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
@@ -1883,19 +1890,17 @@
         <v>46</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -1903,19 +1908,17 @@
         <v>46</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
@@ -1935,7 +1938,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
@@ -1955,7 +1958,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
@@ -1963,19 +1966,19 @@
         <v>46</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F46" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -1983,17 +1986,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
@@ -2001,17 +2006,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2019,17 +2026,19 @@
         <v>46</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
@@ -2037,19 +2046,17 @@
         <v>46</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -2057,19 +2064,17 @@
         <v>46</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>45</v>
       </c>
@@ -2077,19 +2082,17 @@
         <v>46</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -2097,19 +2100,19 @@
         <v>46</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
@@ -2129,53 +2132,55 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
@@ -2187,7 +2192,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>45</v>
       </c>
@@ -2195,19 +2200,17 @@
         <v>62</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -2215,19 +2218,19 @@
         <v>62</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>45</v>
       </c>
@@ -2235,19 +2238,19 @@
         <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>45</v>
       </c>
@@ -2255,19 +2258,19 @@
         <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>45</v>
       </c>
@@ -2275,19 +2278,19 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -2295,19 +2298,19 @@
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
@@ -2327,7 +2330,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
@@ -2335,19 +2338,19 @@
         <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>62</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
@@ -2367,7 +2370,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>45</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
@@ -2387,7 +2390,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>45</v>
       </c>
@@ -2395,19 +2398,19 @@
         <v>62</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>45</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
@@ -2427,7 +2430,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
@@ -2435,19 +2438,19 @@
         <v>62</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -2455,17 +2458,19 @@
         <v>62</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F71" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>45</v>
       </c>
@@ -2473,17 +2478,19 @@
         <v>62</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F72" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>45</v>
       </c>
@@ -2491,19 +2498,19 @@
         <v>62</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>45</v>
       </c>
@@ -2511,19 +2518,17 @@
         <v>62</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>45</v>
       </c>
@@ -2531,19 +2536,17 @@
         <v>62</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
@@ -2563,7 +2566,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>45</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>62</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
@@ -2583,7 +2586,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>45</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>62</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
@@ -2603,7 +2606,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
@@ -2623,7 +2626,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>45</v>
       </c>
@@ -2631,17 +2634,19 @@
         <v>62</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F80" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>45</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>62</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
@@ -2661,7 +2666,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>45</v>
       </c>
@@ -2669,71 +2674,75 @@
         <v>62</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F82" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F84" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>45</v>
       </c>
@@ -2741,19 +2750,17 @@
         <v>89</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>45</v>
       </c>
@@ -2761,17 +2768,17 @@
         <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>45</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2789,7 +2796,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>45</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
@@ -2809,7 +2816,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>45</v>
       </c>
@@ -2817,19 +2824,17 @@
         <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>45</v>
       </c>
@@ -2837,19 +2842,17 @@
         <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>45</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
@@ -2869,7 +2872,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>45</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -2889,7 +2892,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>45</v>
       </c>
@@ -2897,17 +2900,19 @@
         <v>89</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F94" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>45</v>
       </c>
@@ -2915,17 +2920,19 @@
         <v>89</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>45</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>89</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -2945,7 +2952,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>45</v>
       </c>
@@ -2953,19 +2960,17 @@
         <v>89</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>45</v>
       </c>
@@ -2973,19 +2978,17 @@
         <v>89</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>45</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>89</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
@@ -3005,7 +3008,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>45</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>89</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
@@ -3025,7 +3028,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>45</v>
       </c>
@@ -3033,17 +3036,19 @@
         <v>89</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F101" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>45</v>
       </c>
@@ -3051,17 +3056,19 @@
         <v>89</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F102" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>45</v>
       </c>
@@ -3069,17 +3076,19 @@
         <v>89</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F103" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>45</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>89</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3097,7 +3106,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>45</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>89</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3115,7 +3124,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>45</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>89</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3133,7 +3142,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>45</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>89</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3151,7 +3160,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>45</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>89</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3169,7 +3178,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>45</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3187,7 +3196,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3205,7 +3214,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>89</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3223,7 +3232,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>45</v>
       </c>
@@ -3231,19 +3240,17 @@
         <v>89</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>45</v>
       </c>
@@ -3251,19 +3258,17 @@
         <v>89</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>45</v>
       </c>
@@ -3271,19 +3276,17 @@
         <v>89</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>45</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>89</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -3303,7 +3306,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>45</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -3323,33 +3326,35 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F117" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -3361,15 +3366,15 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -3381,12 +3386,12 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>12</v>
@@ -3399,43 +3404,47 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F121" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F122" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>45</v>
       </c>
@@ -3443,19 +3452,17 @@
         <v>121</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>45</v>
       </c>
@@ -3463,19 +3470,17 @@
         <v>121</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D124" s="5"/>
-      <c r="E124" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>45</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>121</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3493,7 +3498,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>45</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -3513,7 +3518,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>45</v>
       </c>
@@ -3521,17 +3526,19 @@
         <v>121</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F127" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>45</v>
       </c>
@@ -3539,103 +3546,103 @@
         <v>121</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E130" s="5"/>
       <c r="F130" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G131" s="5"/>
+      <c r="G131" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F132" s="5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -3647,27 +3654,25 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>158</v>
       </c>
@@ -3675,71 +3680,75 @@
         <v>130</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F136" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G137" s="5"/>
+      <c r="G137" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>158</v>
       </c>
@@ -3747,19 +3756,17 @@
         <v>135</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>158</v>
       </c>
@@ -3767,185 +3774,181 @@
         <v>135</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G140" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="D142" s="5"/>
-      <c r="E142" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E142" s="5"/>
       <c r="F142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G142" s="5"/>
+      <c r="G142" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D143" s="5"/>
-      <c r="E143" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G143" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D144" s="5"/>
-      <c r="E144" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E144" s="5"/>
       <c r="F144" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F147" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3957,87 +3960,87 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D150" s="5"/>
-      <c r="E150" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G150" s="5"/>
+      <c r="G150" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>143</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>146</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
@@ -4057,51 +4060,55 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F155" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F156" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -4113,7 +4120,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>143</v>
       </c>
@@ -4121,19 +4128,17 @@
         <v>151</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D158" s="5"/>
-      <c r="E158" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>143</v>
       </c>
@@ -4141,45 +4146,45 @@
         <v>151</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E159" s="5"/>
       <c r="F159" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F160" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
@@ -4191,15 +4196,15 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
@@ -4211,7 +4216,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>143</v>
       </c>
@@ -4219,102 +4224,102 @@
         <v>156</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D163" s="5"/>
-      <c r="E163" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E163" s="5"/>
       <c r="F163" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D164" s="5"/>
       <c r="E164" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F167" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5" t="s">
@@ -4326,15 +4331,15 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
@@ -4346,15 +4351,15 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4364,35 +4369,35 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
@@ -4404,52 +4409,53 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D173" s="5"/>
-      <c r="E173" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E173" s="5"/>
       <c r="F173" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F174" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
@@ -4461,15 +4467,15 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
@@ -4481,71 +4487,69 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D177" s="5"/>
-      <c r="E177" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G177" s="5"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>174</v>
@@ -4555,9 +4559,68 @@
         <v>7</v>
       </c>
       <c r="F180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G180" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB0090-62AF-4148-8860-728F7A944C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366E6B1-3C03-4282-A4B0-68EEF3B0941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="210">
   <si>
     <t>VEG_COMP_LYR_R1_POLY</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Bad data - get from BEC layer</t>
   </si>
   <si>
     <t>LINE_7B_DISTURBANCE_HISTORY</t>
@@ -1073,9 +1070,9 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1292,9 +1289,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1314,9 +1309,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1336,9 +1329,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1738,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
@@ -1758,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1776,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1794,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1812,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3925,7 +3916,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>65</v>
@@ -3945,10 +3936,10 @@
         <v>143</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3965,10 +3956,10 @@
         <v>143</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4299,10 +4290,10 @@
         <v>143</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>7</v>
@@ -4356,10 +4347,10 @@
         <v>143</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4394,10 +4385,10 @@
         <v>143</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
@@ -4414,10 +4405,10 @@
         <v>143</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4432,10 +4423,10 @@
         <v>143</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5" t="s">
@@ -4452,10 +4443,10 @@
         <v>143</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
@@ -4472,10 +4463,10 @@
         <v>143</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
@@ -4492,10 +4483,10 @@
         <v>143</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4509,10 +4500,10 @@
         <v>143</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
@@ -4529,10 +4520,10 @@
         <v>143</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
@@ -4571,7 +4562,7 @@
         <v>173</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
@@ -4588,10 +4579,10 @@
         <v>171</v>
       </c>
       <c r="B182" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5" t="s">
@@ -4608,7 +4599,7 @@
         <v>171</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>174</v>

--- a/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366E6B1-3C03-4282-A4B0-68EEF3B0941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A00AA8-7A98-491A-AB4C-820378007FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView minimized="1" xWindow="3588" yWindow="2904" windowWidth="16584" windowHeight="9420" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="211">
   <si>
     <t>VEG_COMP_LYR_R1_POLY</t>
   </si>
   <si>
-    <t>VRI</t>
-  </si>
-  <si>
     <t>BCLCS_LEVEL_1</t>
   </si>
   <si>
@@ -416,256 +413,262 @@
     <t>VEG_LOT_ID</t>
   </si>
   <si>
+    <t>PEST_SEVERITY_CODE</t>
+  </si>
+  <si>
+    <t>PEST_SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>CAPTURE_YEAR</t>
+  </si>
+  <si>
+    <t>PROT_HISTORICAL_FIRE_POLYS_SP</t>
+  </si>
+  <si>
+    <t>FIRE_YEAR</t>
+  </si>
+  <si>
+    <t>FIRE_CAUSE</t>
+  </si>
+  <si>
+    <t>FIRE_DATE</t>
+  </si>
+  <si>
+    <t>FIRE_NUMBER</t>
+  </si>
+  <si>
+    <t>VEG_CONSOLIDATED_CUT_BLOCKS_SP</t>
+  </si>
+  <si>
+    <t>HARVEST_YEAR</t>
+  </si>
+  <si>
+    <t>AREA_HA</t>
+  </si>
+  <si>
+    <t>VEG_BURN_SEVERITY_SP</t>
+  </si>
+  <si>
+    <t>BURN_SEVERITY_RATING</t>
+  </si>
+  <si>
+    <t>RMP_PLAN_LEGAL_POLY_SVW</t>
+  </si>
+  <si>
+    <t>STRGC_LAND_RSRCE_PLAN_NAME</t>
+  </si>
+  <si>
+    <t>LEGAL_FEAT_OBJECTIVE</t>
+  </si>
+  <si>
+    <t>LandUse</t>
+  </si>
+  <si>
+    <t>RMP_OGMA_LEGAL_ALL_SVW</t>
+  </si>
+  <si>
+    <t>LEGAL_OGMA_PROVID</t>
+  </si>
+  <si>
+    <t>TA_PARK_ECORES_PA_SVW</t>
+  </si>
+  <si>
+    <t>PROTECTED_LANDS_NAME</t>
+  </si>
+  <si>
+    <t>PROTECTED_LANDS_CODE</t>
+  </si>
+  <si>
+    <t>PROTECTED_LANDS_DESIGNATION</t>
+  </si>
+  <si>
+    <t>PARK_CLASS</t>
+  </si>
+  <si>
+    <t>OGSR_TAP_PRIORITY_DEF_AREA_SP</t>
+  </si>
+  <si>
+    <t>PRIORITY_DEFERRAL_ID</t>
+  </si>
+  <si>
+    <t>TAP_CLASSIFICATION_LABEL</t>
+  </si>
+  <si>
+    <t>ANCIENT_FOREST_IND</t>
+  </si>
+  <si>
+    <t>PRIORITY_BIG_TREED_OG_IND</t>
+  </si>
+  <si>
+    <t>TA_PROTECTED_LANDS_SV</t>
+  </si>
+  <si>
+    <t>ADMIN_AREA_SID</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>FADM_TSA</t>
+  </si>
+  <si>
+    <t>FADM_TFL</t>
+  </si>
+  <si>
+    <t>TA_REGIONAL_DISTRICTS_SVW</t>
+  </si>
+  <si>
+    <t>REGIONAL_DISTRICT_NAME</t>
+  </si>
+  <si>
+    <t>BEC_NATURAL_DISTURBANCE_SV</t>
+  </si>
+  <si>
+    <t>NATURAL_DISTURBANCE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>TSA_NUMBER_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>FTEN_CUT_BLOCK_POLY_SVW</t>
+  </si>
+  <si>
+    <t>FOREST_FILE_ID</t>
+  </si>
+  <si>
+    <t>CUT_BLOCK_ID</t>
+  </si>
+  <si>
+    <t>OGSR_TPDA_SYSID</t>
+  </si>
+  <si>
+    <t>TREE_COVER_PATTERN_CODE</t>
+  </si>
+  <si>
+    <t>LandCover</t>
+  </si>
+  <si>
+    <t>FWA_WETLANDS_POLY</t>
+  </si>
+  <si>
+    <t>BC_MAJOR_WATERSHEDS</t>
+  </si>
+  <si>
+    <t>WATERBODY_TYPE</t>
+  </si>
+  <si>
+    <t>BEC_BIOGEOCLIMATIC_POLY</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>SUBZONE</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>LINE_7B_DISTURBANCE_HISTORY</t>
+  </si>
+  <si>
+    <t>CLAB_NATIONAL_PARKS</t>
+  </si>
+  <si>
+    <t>ENGLISH_NAME</t>
+  </si>
+  <si>
+    <t>CROWN_CLOSURE</t>
+  </si>
+  <si>
+    <t>MAJOR_WATERSHED_SYSTEM</t>
+  </si>
+  <si>
+    <t>FWA_WATERSHED_GROUPS_POLY</t>
+  </si>
+  <si>
+    <t>WATERSHED_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>FTEN_ROAD_SEGMENT_LINES_SVW</t>
+  </si>
+  <si>
+    <t>LIFE_CYCLE_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>RETIREMENT_DATE</t>
+  </si>
+  <si>
+    <t>OATS_ALR_POLYS</t>
+  </si>
+  <si>
+    <t>ALR_POLY_ID</t>
+  </si>
+  <si>
+    <t>DRA_DGTL_ROAD_ATLAS_MPAR_SP</t>
+  </si>
+  <si>
+    <t>DIGITAL_ROAD_ATLAS_LINE_ID</t>
+  </si>
+  <si>
+    <t>TA_MUNICIPALITIES_SVW</t>
+  </si>
+  <si>
+    <t>MUNICIPALITY_NAME</t>
+  </si>
+  <si>
+    <t>FWA_MANMADE_WATERBODIES_POLY</t>
+  </si>
+  <si>
+    <t>HSP_MJR_MINES_PERMTTD_AREAS_SP</t>
+  </si>
+  <si>
+    <t>MINE_NAME</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>GBA_TRANSMISSION_LINES_SP</t>
+  </si>
+  <si>
+    <t>BC_MAJOR_CITIES_POINTS_500M</t>
+  </si>
+  <si>
+    <t>TRANSMISSION_LINE_ID</t>
+  </si>
+  <si>
+    <t>NRC_POPULATED_PLACES_1M_SP</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>F_OWN</t>
+  </si>
+  <si>
+    <t>OWNERSHIP_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BRANCH_BIOMASS_PER_HA</t>
+  </si>
+  <si>
+    <t>FOLIAGE_BIOMASS_PER_HA</t>
+  </si>
+  <si>
+    <t>BARK_BIOMASS_PER_HA</t>
+  </si>
+  <si>
+    <t>VRI 2023</t>
+  </si>
+  <si>
     <t>PEST_INFESTATION_POLY</t>
   </si>
   <si>
-    <t>PEST_SEVERITY_CODE</t>
-  </si>
-  <si>
-    <t>PEST_SPECIES_CODE</t>
-  </si>
-  <si>
-    <t>CAPTURE_YEAR</t>
-  </si>
-  <si>
-    <t>PROT_HISTORICAL_FIRE_POLYS_SP</t>
-  </si>
-  <si>
-    <t>FIRE_YEAR</t>
-  </si>
-  <si>
-    <t>FIRE_CAUSE</t>
-  </si>
-  <si>
-    <t>FIRE_DATE</t>
-  </si>
-  <si>
-    <t>FIRE_NUMBER</t>
-  </si>
-  <si>
-    <t>VEG_CONSOLIDATED_CUT_BLOCKS_SP</t>
-  </si>
-  <si>
-    <t>HARVEST_YEAR</t>
-  </si>
-  <si>
-    <t>AREA_HA</t>
-  </si>
-  <si>
-    <t>VEG_BURN_SEVERITY_SP</t>
-  </si>
-  <si>
-    <t>BURN_SEVERITY_RATING</t>
-  </si>
-  <si>
-    <t>RMP_PLAN_LEGAL_POLY_SVW</t>
-  </si>
-  <si>
-    <t>STRGC_LAND_RSRCE_PLAN_NAME</t>
-  </si>
-  <si>
-    <t>LEGAL_FEAT_OBJECTIVE</t>
-  </si>
-  <si>
-    <t>LandUse</t>
-  </si>
-  <si>
-    <t>RMP_OGMA_LEGAL_ALL_SVW</t>
-  </si>
-  <si>
-    <t>LEGAL_OGMA_PROVID</t>
-  </si>
-  <si>
-    <t>TA_PARK_ECORES_PA_SVW</t>
-  </si>
-  <si>
-    <t>PROTECTED_LANDS_NAME</t>
-  </si>
-  <si>
-    <t>PROTECTED_LANDS_CODE</t>
-  </si>
-  <si>
-    <t>PROTECTED_LANDS_DESIGNATION</t>
-  </si>
-  <si>
-    <t>PARK_CLASS</t>
-  </si>
-  <si>
-    <t>OGSR_TAP_PRIORITY_DEF_AREA_SP</t>
-  </si>
-  <si>
-    <t>PRIORITY_DEFERRAL_ID</t>
-  </si>
-  <si>
-    <t>TAP_CLASSIFICATION_LABEL</t>
-  </si>
-  <si>
-    <t>ANCIENT_FOREST_IND</t>
-  </si>
-  <si>
-    <t>PRIORITY_BIG_TREED_OG_IND</t>
-  </si>
-  <si>
-    <t>TA_PROTECTED_LANDS_SV</t>
-  </si>
-  <si>
-    <t>ADMIN_AREA_SID</t>
-  </si>
-  <si>
-    <t>Disturbance</t>
-  </si>
-  <si>
-    <t>FADM_TSA</t>
-  </si>
-  <si>
-    <t>FADM_TFL</t>
-  </si>
-  <si>
-    <t>TA_REGIONAL_DISTRICTS_SVW</t>
-  </si>
-  <si>
-    <t>REGIONAL_DISTRICT_NAME</t>
-  </si>
-  <si>
-    <t>BEC_NATURAL_DISTURBANCE_SV</t>
-  </si>
-  <si>
-    <t>NATURAL_DISTURBANCE_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>TSA_NUMBER_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>FTEN_CUT_BLOCK_POLY_SVW</t>
-  </si>
-  <si>
-    <t>FOREST_FILE_ID</t>
-  </si>
-  <si>
-    <t>CUT_BLOCK_ID</t>
-  </si>
-  <si>
-    <t>OGSR_TPDA_SYSID</t>
-  </si>
-  <si>
-    <t>TREE_COVER_PATTERN_CODE</t>
-  </si>
-  <si>
-    <t>LandCover</t>
-  </si>
-  <si>
-    <t>FWA_WETLANDS_POLY</t>
-  </si>
-  <si>
-    <t>BC_MAJOR_WATERSHEDS</t>
-  </si>
-  <si>
-    <t>WATERBODY_TYPE</t>
-  </si>
-  <si>
-    <t>BEC_BIOGEOCLIMATIC_POLY</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>SUBZONE</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>LINE_7B_DISTURBANCE_HISTORY</t>
-  </si>
-  <si>
-    <t>CLAB_NATIONAL_PARKS</t>
-  </si>
-  <si>
-    <t>ENGLISH_NAME</t>
-  </si>
-  <si>
-    <t>CROWN_CLOSURE</t>
-  </si>
-  <si>
-    <t>MAJOR_WATERSHED_SYSTEM</t>
-  </si>
-  <si>
-    <t>FWA_WATERSHED_GROUPS_POLY</t>
-  </si>
-  <si>
-    <t>WATERSHED_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>FTEN_ROAD_SEGMENT_LINES_SVW</t>
-  </si>
-  <si>
-    <t>LIFE_CYCLE_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>RETIREMENT_DATE</t>
-  </si>
-  <si>
-    <t>OATS_ALR_POLYS</t>
-  </si>
-  <si>
-    <t>ALR_POLY_ID</t>
-  </si>
-  <si>
-    <t>DRA_DGTL_ROAD_ATLAS_MPAR_SP</t>
-  </si>
-  <si>
-    <t>DIGITAL_ROAD_ATLAS_LINE_ID</t>
-  </si>
-  <si>
-    <t>TA_MUNICIPALITIES_SVW</t>
-  </si>
-  <si>
-    <t>MUNICIPALITY_NAME</t>
-  </si>
-  <si>
-    <t>FWA_MANMADE_WATERBODIES_POLY</t>
-  </si>
-  <si>
-    <t>HSP_MJR_MINES_PERMTTD_AREAS_SP</t>
-  </si>
-  <si>
-    <t>MINE_NAME</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>GBA_TRANSMISSION_LINES_SP</t>
-  </si>
-  <si>
-    <t>BC_MAJOR_CITIES_POINTS_500M</t>
-  </si>
-  <si>
-    <t>TRANSMISSION_LINE_ID</t>
-  </si>
-  <si>
-    <t>NRC_POPULATED_PLACES_1M_SP</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Handle</t>
-  </si>
-  <si>
-    <t>F_OWN</t>
-  </si>
-  <si>
-    <t>OWNERSHIP_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>BRANCH_BIOMASS_PER_HA</t>
-  </si>
-  <si>
-    <t>FOLIAGE_BIOMASS_PER_HA</t>
-  </si>
-  <si>
-    <t>BARK_BIOMASS_PER_HA</t>
+    <t>FOR_MGMT_LAND_BASE_IND</t>
   </si>
 </sst>
 </file>
@@ -1067,12 +1070,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H12"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,1014 +1092,1033 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
+      <c r="A10" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
+      <c r="A11" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
+      <c r="A12" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>I26*0.5*0.4</f>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f>I31*0.5*0.5</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>36</v>
+      </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
         <v>37</v>
       </c>
@@ -2105,452 +2127,452 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F68" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
         <v>37</v>
       </c>
@@ -2559,156 +2581,156 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F83" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
         <v>37</v>
       </c>
@@ -2717,282 +2739,282 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F85" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F97" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
         <v>37</v>
       </c>
@@ -3001,296 +3023,296 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E115" s="5"/>
       <c r="F115" s="5" t="s">
         <v>37</v>
       </c>
@@ -3299,187 +3321,189 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F120" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F123" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3491,56 +3515,56 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D126" s="5"/>
-      <c r="E126" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F128" s="5" t="s">
         <v>38</v>
       </c>
@@ -3549,36 +3573,36 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D129" s="5"/>
-      <c r="E129" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E129" s="5"/>
       <c r="F129" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F130" s="5" t="s">
         <v>38</v>
       </c>
@@ -3587,10 +3611,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>53</v>
@@ -3600,1018 +3624,1036 @@
       <c r="F131" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G131" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E132" s="5"/>
       <c r="F132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F134" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D136" s="5"/>
-      <c r="E136" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E136" s="5"/>
       <c r="F136" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F137" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G138" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H138" s="5"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G144" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F150" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D151" s="5"/>
-      <c r="E151" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G151" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H151" s="5"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F158" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D160" s="5"/>
-      <c r="E160" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E160" s="5"/>
       <c r="F160" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F163" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D164" s="5"/>
-      <c r="E164" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E164" s="5"/>
       <c r="F164" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D167" s="5"/>
       <c r="E167" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D168" s="5"/>
+        <v>204</v>
+      </c>
       <c r="E168" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F170" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="D171" s="5"/>
-      <c r="E171" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E171" s="5"/>
       <c r="F171" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F173" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D174" s="5"/>
-      <c r="E174" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E174" s="5"/>
       <c r="F174" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F177" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G177" s="5"/>
       <c r="H177" s="5"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D178" s="5"/>
-      <c r="E178" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E178" s="5"/>
       <c r="F178" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G178" s="5"/>
+        <v>36</v>
+      </c>
       <c r="H178" s="5"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G181" s="5"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="C182" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G184" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_BC1haRasterVariableList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A00AA8-7A98-491A-AB4C-820378007FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8ED9F-FB29-4414-B38E-DB7561F3118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3588" yWindow="2904" windowWidth="16584" windowHeight="9420" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,24 +1073,24 @@
   <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>208</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>208</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>208</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>208</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>208</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>208</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>208</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>208</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>208</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>208</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>208</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>208</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>208</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>208</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>208</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>208</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>208</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>208</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>208</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>208</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>208</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>208</v>
       </c>
@@ -1597,11 +1597,8 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>208</v>
       </c>
@@ -1618,12 +1615,8 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27">
-        <f>I26*0.5*0.4</f>
-        <v>10.200000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>208</v>
       </c>
@@ -1641,7 +1634,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>208</v>
       </c>
@@ -1659,7 +1652,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>208</v>
       </c>
@@ -1677,7 +1670,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>208</v>
       </c>
@@ -1694,11 +1687,8 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>208</v>
       </c>
@@ -1715,12 +1705,8 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32">
-        <f>I31*0.5*0.5</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>208</v>
       </c>
@@ -1737,11 +1723,8 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>208</v>
       </c>
@@ -1760,11 +1743,8 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>208</v>
       </c>
@@ -1782,7 +1762,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>208</v>
       </c>
@@ -1799,7 +1779,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>208</v>
       </c>
@@ -1817,7 +1797,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>208</v>
       </c>
@@ -1835,7 +1815,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>208</v>
       </c>
@@ -1855,7 +1835,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>208</v>
       </c>
@@ -1875,7 +1855,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>208</v>
       </c>
@@ -1895,7 +1875,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>208</v>
       </c>
@@ -1915,7 +1895,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1933,7 +1913,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +1931,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
@@ -1971,7 +1951,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +1971,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -2011,7 +1991,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -2031,7 +2011,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -2051,7 +2031,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
@@ -2071,7 +2051,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
@@ -2089,7 +2069,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -2107,7 +2087,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
@@ -2125,7 +2105,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>44</v>
       </c>
@@ -2145,7 +2125,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
@@ -2165,7 +2145,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2165,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
@@ -2205,7 +2185,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2205,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>44</v>
       </c>
@@ -2243,7 +2223,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>44</v>
       </c>
@@ -2263,7 +2243,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>44</v>
       </c>
@@ -2283,7 +2263,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>44</v>
       </c>
@@ -2303,7 +2283,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>44</v>
       </c>
@@ -2323,7 +2303,7 @@
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>44</v>
       </c>
@@ -2343,7 +2323,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -2363,7 +2343,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2363,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>44</v>
       </c>
@@ -2403,7 +2383,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -2423,7 +2403,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>44</v>
       </c>
@@ -2443,7 +2423,7 @@
       </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>44</v>
       </c>
@@ -2463,7 +2443,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>44</v>
       </c>
@@ -2483,7 +2463,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>44</v>
       </c>
@@ -2503,7 +2483,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>44</v>
       </c>
@@ -2523,7 +2503,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>44</v>
       </c>
@@ -2543,7 +2523,7 @@
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2541,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>44</v>
       </c>
@@ -2579,7 +2559,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>44</v>
       </c>
@@ -2599,7 +2579,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2599,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>44</v>
       </c>
@@ -2639,7 +2619,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>44</v>
       </c>
@@ -2659,7 +2639,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>44</v>
       </c>
@@ -2679,7 +2659,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2679,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>44</v>
       </c>
@@ -2719,7 +2699,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>44</v>
       </c>
@@ -2737,7 +2717,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>44</v>
       </c>
@@ -2757,7 +2737,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>44</v>
       </c>
@@ -2775,7 +2755,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2773,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>44</v>
       </c>
@@ -2811,7 +2791,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>44</v>
       </c>
@@ -2829,7 +2809,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>44</v>
       </c>
@@ -2849,7 +2829,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>44</v>
       </c>
@@ -2867,7 +2847,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>44</v>
       </c>
@@ -2885,7 +2865,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>44</v>
       </c>
@@ -2905,7 +2885,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>44</v>
       </c>
@@ -2925,7 +2905,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>44</v>
       </c>
@@ -2945,7 +2925,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>44</v>
       </c>
@@ -2965,7 +2945,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>44</v>
       </c>
@@ -2985,7 +2965,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>44</v>
       </c>
@@ -3003,7 +2983,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>44</v>
       </c>
@@ -3021,7 +3001,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>44</v>
       </c>
@@ -3041,7 +3021,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3041,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>44</v>
       </c>
@@ -3081,7 +3061,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>44</v>
       </c>
@@ -3101,7 +3081,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>44</v>
       </c>
@@ -3121,7 +3101,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>44</v>
       </c>
@@ -3139,7 +3119,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>44</v>
       </c>
@@ -3157,7 +3137,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>44</v>
       </c>
@@ -3175,7 +3155,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3173,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>44</v>
       </c>
@@ -3211,7 +3191,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>44</v>
       </c>
@@ -3229,7 +3209,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>44</v>
       </c>
@@ -3247,7 +3227,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>44</v>
       </c>
@@ -3265,7 +3245,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>44</v>
       </c>
@@ -3283,7 +3263,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>44</v>
       </c>
@@ -3301,7 +3281,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>44</v>
       </c>
@@ -3319,7 +3299,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>44</v>
       </c>
@@ -3339,7 +3319,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>44</v>
       </c>
@@ -3359,7 +3339,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>44</v>
       </c>
@@ -3379,7 +3359,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>44</v>
       </c>
@@ -3399,7 +3379,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>44</v>
       </c>
@@ -3419,7 +3399,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>44</v>
       </c>
@@ -3437,7 +3417,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>44</v>
       </c>
@@ -3457,7 +3437,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>44</v>
       </c>
@@ -3477,7 +3457,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>44</v>
       </c>
@@ -3495,7 +3475,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>44</v>
       </c>
@@ -3513,7 +3493,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>44</v>
       </c>
@@ -3531,7 +3511,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>44</v>
       </c>
@@ -3551,7 +3531,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3551,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>44</v>
       </c>
@@ -3589,7 +3569,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>44</v>
       </c>
@@ -3609,7 +3589,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>44</v>
       </c>
@@ -3627,7 +3607,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>44</v>
       </c>
@@ -3647,7 +3627,7 @@
       </c>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>156</v>
       </c>
@@ -3667,7 +3647,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>156</v>
       </c>
@@ -3687,7 +3667,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>156</v>
       </c>
@@ -3705,7 +3685,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>156</v>
       </c>
@@ -3723,7 +3703,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>156</v>
       </c>
@@ -3743,7 +3723,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>156</v>
       </c>
@@ -3763,7 +3743,7 @@
       </c>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>156</v>
       </c>
@@ -3781,7 +3761,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>156</v>
       </c>
@@ -3799,7 +3779,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>156</v>
       </c>
@@ -3817,7 +3797,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>156</v>
       </c>
@@ -3835,7 +3815,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>156</v>
       </c>
@@ -3855,7 +3835,7 @@
       </c>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>156</v>
       </c>
@@ -3875,7 +3855,7 @@
       </c>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>156</v>
       </c>
@@ -3893,7 +3873,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>156</v>
       </c>
@@ -3913,7 +3893,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>156</v>
       </c>
@@ -3933,7 +3913,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>156</v>
       </c>
@@ -3953,7 +3933,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>141</v>
       </c>
@@ -3973,7 +3953,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>141</v>
       </c>
@@ -3993,7 +3973,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>141</v>
       </c>
@@ -4013,7 +3993,7 @@
       </c>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>141</v>
       </c>
@@ -4033,7 +4013,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>141</v>
       </c>
@@ -4053,7 +4033,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>141</v>
       </c>
@@ -4073,7 +4053,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>141</v>
       </c>
@@ -4093,7 +4073,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>141</v>
       </c>
@@ -4113,7 +4093,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>141</v>
       </c>
@@ -4133,7 +4113,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>141</v>
       </c>
@@ -4153,7 +4133,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>141</v>
       </c>
@@ -4171,7 +4151,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>141</v>
       </c>
@@ -4189,7 +4169,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>141</v>
       </c>
@@ -4209,7 +4189,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>141</v>
       </c>
@@ -4229,7 +4209,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>141</v>
       </c>
@@ -4249,7 +4229,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>141</v>
       </c>
@@ -4267,7 +4247,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>141</v>
       </c>
@@ -4287,7 +4267,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>141</v>
       </c>
@@ -4307,7 +4287,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>141</v>
       </c>
@@ -4327,7 +4307,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>141</v>
       </c>
@@ -4344,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>141</v>
       </c>
@@ -4364,7 +4344,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>141</v>
       </c>
@@ -4384,7 +4364,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>141</v>
       </c>
@@ -4402,7 +4382,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>141</v>
       </c>
@@ -4422,7 +4402,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>141</v>
       </c>
@@ -4442,7 +4422,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>141</v>
       </c>
@@ -4460,7 +4440,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>141</v>
       </c>
@@ -4480,7 +4460,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>141</v>
       </c>
@@ -4500,7 +4480,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>141</v>
       </c>
@@ -4520,7 +4500,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>141</v>
       </c>
@@ -4537,7 +4517,7 @@
       </c>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>141</v>
       </c>
@@ -4557,7 +4537,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>141</v>
       </c>
@@ -4577,7 +4557,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>169</v>
       </c>
@@ -4596,7 +4576,7 @@
       </c>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>169</v>
       </c>
@@ -4616,7 +4596,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>169</v>
       </c>
@@ -4636,7 +4616,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>169</v>
       </c>
